--- a/site_check-list.xlsx
+++ b/site_check-list.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UI and make-up" sheetId="1" r:id="rId1"/>
-    <sheet name="Functionality" sheetId="2" r:id="rId2"/>
+    <sheet name="Main Functionality" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="115">
   <si>
     <t>Brouser</t>
   </si>
@@ -216,12 +216,6 @@
     <t>Failed</t>
   </si>
   <si>
-    <t>"О нас"  http://prochip.com.ua/about_us</t>
-  </si>
-  <si>
-    <t>Main Page  http://prochip.com.ua</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -289,9 +283,6 @@
   </si>
   <si>
     <t>1.14</t>
-  </si>
-  <si>
-    <t>About us text displayed correctly</t>
   </si>
   <si>
     <t>2.8</t>
@@ -415,12 +406,408 @@
       <t xml:space="preserve"> botton on the bottom right corner</t>
     </r>
   </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>"Главная"   http://prochip.com.ua</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>"О нас", "Новинки", "Как покупать", "Прайс-Лист", "Карта сайта", "Наши новости"</t>
+  </si>
+  <si>
+    <t>Text displayed correctly and all links are valid</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ability click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Continue]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> botton on the bottom right corner of the pages</t>
+    </r>
+  </si>
+  <si>
+    <t>"Контакты"  http://prochip.com.ua/index.php?route=information/contact</t>
+  </si>
+  <si>
+    <t>Contakts Text is valid</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>Tthe feedback form is displayed correctly and is available for data entry</t>
+  </si>
+  <si>
+    <t>Сaptcha сorrectly displayed  under the data entry form</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>"Registration"   http://prochip.com.ua/index.php?route=account/register</t>
+  </si>
+  <si>
+    <t>No need to check. The site works without registration.</t>
+  </si>
+  <si>
+    <t>"purchase of goods"</t>
+  </si>
+  <si>
+    <t>choose any product from the list of proposed</t>
+  </si>
+  <si>
+    <t>check that you can enter the required quantity of goods in the quantity field</t>
+  </si>
+  <si>
+    <t>check that the feedback tab can be opened and a comment input box appears</t>
+  </si>
+  <si>
+    <t>check that the product can be rated using radio buttons</t>
+  </si>
+  <si>
+    <t>check that the [Feedback[ and [Description] tabs open normally</t>
+  </si>
+  <si>
+    <r>
+      <t>check that the [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buy button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] can be pressed and the product is added to the cart</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">check that the product can be added to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">comparison list </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">by clicking on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[appropriate link]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the right of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Buy button]</t>
+    </r>
+  </si>
+  <si>
+    <t>check that the product image can be enlarged by clicking on it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check that clicking on the basket icon in the upper right corner causes it to appear and its status is displayed. </t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the type and quantity of goods in the cart must match those selected in step </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.6</t>
+    </r>
+  </si>
+  <si>
+    <t>"View and manage your cart"  http://prochip.com.ua/index.php?route=checkout/cart</t>
+  </si>
+  <si>
+    <t>check that the basket can be opened and viewed by clicking on the link "View basket"</t>
+  </si>
+  <si>
+    <t>check that the quantity of the selected product can be added or reduced in the basket by entering the required number in the quantity of goods input field</t>
+  </si>
+  <si>
+    <t>check that the goods can be removed from the shopping cart by clicking on the red cross</t>
+  </si>
+  <si>
+    <t>check that clicking on the product description link, as well as on its image, results in loading the page with the product and its description</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">check that pressing the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[checkout button]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> leads to the checkout page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">check that pressing the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[continue shopping]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button leads to returning to the store and allows you to continue working with it</t>
+    </r>
+  </si>
+  <si>
+    <t>"Checkout"  http://prochip.com.ua/index.php?route=checkout/checkout</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">check that when you open the order form, the default set </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[without registration] on radio button</t>
+    </r>
+  </si>
+  <si>
+    <t>check that after clicking the button continue the data entered in step 2 about the buyer insearts into the site database</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">check that when you click continue open the next step  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the order form opens</t>
+    </r>
+  </si>
+  <si>
+    <t>check that all fields of the new customer registration form can be filled in with the appropriate information</t>
+  </si>
+  <si>
+    <t>check that the radio button activity can be selected in the forehead from 3 positions</t>
+  </si>
+  <si>
+    <t>check that if the delivery address checkbox is the same as the one being registered, then step 3 of the checkout form is skipped</t>
+  </si>
+  <si>
+    <t>check that the radio button delivery type can be switched to any position.  A comment can also be added.</t>
+  </si>
+  <si>
+    <t>check that the checkbox of the purchase agreement leads to the possibility of clicking the button to continue</t>
+  </si>
+  <si>
+    <t>check that after pressing the continue button a summary table of the current order (purchase) is displayed.</t>
+  </si>
+  <si>
+    <t>check that after clicking continue the order will be sent for processing and a message will appear</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,8 +849,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,8 +883,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -497,31 +904,211 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -802,541 +1389,833 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="92.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="C29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B32" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="C41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="C44" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1347,12 +2226,579 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="140.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/site_check-list.xlsx
+++ b/site_check-list.xlsx
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="117">
   <si>
     <t>Brouser</t>
   </si>
@@ -801,6 +801,37 @@
   </si>
   <si>
     <t>4.10</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">check e-mail box which was introduced in step  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4.3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Must receive a letter to the specified box with the details of the payment order</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -896,7 +927,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1050,11 +1081,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1109,12 +1153,81 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1134,7 +1247,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F6F6F6"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2226,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,14 +2892,14 @@
       </c>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="12" t="s">
@@ -2795,10 +2908,29 @@
       <c r="E33" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>